--- a/downloaded_files/GENS120_Lecture-35039.xlsx
+++ b/downloaded_files/GENS120_Lecture-35039.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -172,6 +172,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Alaa Abdelraheem Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1240180</x:t>
@@ -377,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -677,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1278,7 +1287,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4198355324</x:v>
+        <x:v>45918.9870843403</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1310,7 +1319,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.9573425926</x:v>
+        <x:v>45908.4198355324</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1342,7 +1351,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.4077918171</x:v>
+        <x:v>45914.9573425926</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1374,7 +1383,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45918.4077918171</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4151913542</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45907.4151913542</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.6936012731</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.6975549769</x:v>
+        <x:v>45909.6936012731</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1583,6 +1592,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45909.6975549769</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35039.xlsx
+++ b/downloaded_files/GENS120_Lecture-35039.xlsx
@@ -1287,7 +1287,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45918.9870843403</x:v>
+        <x:v>45919.3284298611</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>

--- a/downloaded_files/GENS120_Lecture-35039.xlsx
+++ b/downloaded_files/GENS120_Lecture-35039.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,6 +105,15 @@
     <x:t>Syed Faseeh</x:t>
   </x:si>
   <x:si>
+    <x:t>4250177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>شابى اشرف محمد كامل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shaby Ashraf Mohamed Kamel</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240022</x:t>
   </x:si>
   <x:si>
@@ -147,6 +156,15 @@
     <x:t>Ali Hassan Ali Hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>4250181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على عبدالرحمن محمد ابراهيم حمزه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Abdul Rahman Mohamed Ibrahim Hamza</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240101</x:t>
   </x:si>
   <x:si>
@@ -183,6 +201,15 @@
     <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
+    <x:t>4250163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر مصطفى حسني محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mostafa Hosni</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240180</x:t>
   </x:si>
   <x:si>
@@ -271,6 +298,33 @@
   </x:si>
   <x:si>
     <x:t>Youssab Youssef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ابراهيم سعيد عيد حسانين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ibrahem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف حسن سيد احمد حسن السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hassan Sayed Ahmed Hassan El-Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف مصطفى احمد محمود عبدالعال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mostafa Ahmed Mahmoud</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -386,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -686,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1029,9 +1083,11 @@
       <x:c r="C10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s"/>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6671441782</x:v>
+        <x:v>45920.7824127315</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1054,16 +1110,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
+      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45918.4008486458</x:v>
+        <x:v>45907.6671441782</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1095,7 +1149,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.9609582986</x:v>
+        <x:v>45918.4008486458</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1127,7 +1181,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45914.9609582986</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1159,7 +1213,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1191,7 +1245,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6829636574</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1223,7 +1277,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45920.7729113426</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1255,7 +1309,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45907.6829636574</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1287,7 +1341,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45919.3284298611</x:v>
+        <x:v>45907.6715989236</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1319,7 +1373,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4198355324</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1351,7 +1405,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.9573425926</x:v>
+        <x:v>45919.3284298611</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1383,7 +1437,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.4077918171</x:v>
+        <x:v>45920.7870229167</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1415,7 +1469,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45908.4198355324</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1447,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4151913542</x:v>
+        <x:v>45914.9573425926</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1479,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45918.4077918171</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1511,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1543,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.4151913542</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1575,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.6936012731</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1607,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.6975549769</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1624,6 +1678,198 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.666621412</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45909.6936012731</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45909.6975549769</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45920.7699767708</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45920.7855165856</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45920.7949499653</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35039.xlsx
+++ b/downloaded_files/GENS120_Lecture-35039.xlsx
@@ -78,13 +78,13 @@
     <x:t>AYA AHMED</x:t>
   </x:si>
   <x:si>
-    <x:t>1240315</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد محمد مجدي محمود احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zeiad mohamed magdy</x:t>
+    <x:t>1240065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد احمد محمد المغازى مخلوف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zyad Ahmed mohamed Almoghazy makhlouf</x:t>
   </x:si>
   <x:si>
     <x:t>1240317</x:t>
@@ -991,7 +991,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4170966782</x:v>
+        <x:v>45921.515284456</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>

--- a/downloaded_files/GENS120_Lecture-35039.xlsx
+++ b/downloaded_files/GENS120_Lecture-35039.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -199,6 +199,15 @@
   </x:si>
   <x:si>
     <x:t>omar mohamed salaheldeen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد محمد محمد الحفناوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Mohamed Mohamed Elhefnawy</x:t>
   </x:si>
   <x:si>
     <x:t>4250163</x:t>
@@ -440,7 +449,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +749,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1437,7 +1446,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45920.7870229167</x:v>
+        <x:v>45921.8406684028</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1469,7 +1478,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4198355324</x:v>
+        <x:v>45920.7870229167</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1501,7 +1510,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.9573425926</x:v>
+        <x:v>45908.4198355324</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1533,7 +1542,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.4077918171</x:v>
+        <x:v>45914.9573425926</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1565,7 +1574,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45918.4077918171</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4151913542</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45907.4151913542</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.6936012731</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.6975549769</x:v>
+        <x:v>45909.6936012731</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45920.7699767708</x:v>
+        <x:v>45909.6975549769</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45920.7855165856</x:v>
+        <x:v>45920.7699767708</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45920.7949499653</x:v>
+        <x:v>45920.7855165856</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1871,6 +1880,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45920.7949499653</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1883,6 +1924,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of  Economics and Accounting (GENS120) Location : [20109]20109-45-الجيزة الرئيسي Time : Thursday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS120_Lecture-35039.xlsx
+++ b/downloaded_files/GENS120_Lecture-35039.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -174,15 +174,6 @@
     <x:t>Omar Ehab</x:t>
   </x:si>
   <x:si>
-    <x:t>1240103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر حاتم محمد محمود الفحل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Hatem Mohamed Mahmoud Elfahl</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240110</x:t>
   </x:si>
   <x:si>
@@ -192,15 +183,6 @@
     <x:t>Omar Alaa Abdelraheem Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1240111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omar mohamed salaheldeen</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240113</x:t>
   </x:si>
   <x:si>
@@ -244,6 +226,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ibrahim Elshenawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم وليد مصطفى محمد  عيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Walid Mostafa Mohamed Eid</x:t>
   </x:si>
   <x:si>
     <x:t>1240270</x:t>
@@ -449,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -749,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1350,7 +1341,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1382,7 +1373,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45921.8406684028</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1414,7 +1405,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45919.3284298611</x:v>
+        <x:v>45920.7870229167</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1446,7 +1437,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.8406684028</x:v>
+        <x:v>45908.4198355324</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1478,7 +1469,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45920.7870229167</x:v>
+        <x:v>45914.9573425926</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1510,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4198355324</x:v>
+        <x:v>45918.4077918171</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1542,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.9573425926</x:v>
+        <x:v>45922.596708912</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.4077918171</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45907.4151913542</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1638,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4151913542</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45909.6936012731</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.6936012731</x:v>
+        <x:v>45909.6975549769</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.6975549769</x:v>
+        <x:v>45920.7699767708</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45920.7699767708</x:v>
+        <x:v>45920.7855165856</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45920.7855165856</x:v>
+        <x:v>45920.7949499653</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1880,38 +1871,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45920.7949499653</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1924,9 +1883,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of  Economics and Accounting (GENS120) Location : [20109]20109-45-الجيزة الرئيسي Time : Thursday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS120_Lecture-35039.xlsx
+++ b/downloaded_files/GENS120_Lecture-35039.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>ahmed khaled saad mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1240020</x:t>
@@ -440,7 +449,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +749,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -895,7 +904,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6942217245</x:v>
+        <x:v>45925.3110492245</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -927,7 +936,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.4188600694</x:v>
+        <x:v>45907.6942217245</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -959,7 +968,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4167915509</x:v>
+        <x:v>45908.4188600694</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -991,7 +1000,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45921.515284456</x:v>
+        <x:v>45907.4167915509</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1023,7 +1032,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.8055195602</x:v>
+        <x:v>45921.515284456</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1055,7 +1064,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4179422454</x:v>
+        <x:v>45909.8055195602</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45920.7824127315</x:v>
+        <x:v>45908.4179422454</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1115,9 +1124,11 @@
       <x:c r="C11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s"/>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6671441782</x:v>
+        <x:v>45920.7824127315</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1140,16 +1151,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45918.4008486458</x:v>
+        <x:v>45907.6671441782</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1181,7 +1190,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.9609582986</x:v>
+        <x:v>45918.4008486458</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1213,7 +1222,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45914.9609582986</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1245,7 +1254,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1277,7 +1286,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45920.7729113426</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1309,7 +1318,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6829636574</x:v>
+        <x:v>45920.7729113426</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1341,7 +1350,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45907.6829636574</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1373,7 +1382,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45921.8406684028</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1405,7 +1414,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45920.7870229167</x:v>
+        <x:v>45921.8406684028</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1437,7 +1446,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4198355324</x:v>
+        <x:v>45920.7870229167</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1469,7 +1478,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.9573425926</x:v>
+        <x:v>45908.4198355324</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1501,7 +1510,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.4077918171</x:v>
+        <x:v>45914.9573425926</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1533,7 +1542,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45922.596708912</x:v>
+        <x:v>45918.4077918171</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1565,7 +1574,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45922.596708912</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4151913542</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45907.4151913542</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.6936012731</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.6975549769</x:v>
+        <x:v>45909.6936012731</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45920.7699767708</x:v>
+        <x:v>45909.6975549769</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45920.7855165856</x:v>
+        <x:v>45920.7699767708</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45920.7949499653</x:v>
+        <x:v>45920.7855165856</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1871,6 +1880,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45920.7949499653</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1883,6 +1924,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of  Economics and Accounting (GENS120) Location : [20109]20109-45-الجيزة الرئيسي Time : Thursday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS120_Lecture-35039.xlsx
+++ b/downloaded_files/GENS120_Lecture-35039.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,13 +51,13 @@
     <x:t>ahmed khaled saad mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1240018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمود محمد محمد خليفة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
+    <x:t>4250166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد وائل ابراهيم العجمى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Waaiel</x:t>
   </x:si>
   <x:si>
     <x:t>1240020</x:t>
@@ -78,6 +78,15 @@
     <x:t>Adam Ahmed Sayed Ali Khalil Ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>2240007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ايمن امجد حسين سلام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ayman Amged</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230165</x:t>
   </x:si>
   <x:si>
@@ -87,6 +96,15 @@
     <x:t>AYA AHMED</x:t>
   </x:si>
   <x:si>
+    <x:t>1240038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بلال حمدى احمد حسين محمد احمد أبو طالب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belal Hamdy Ahmad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240065</x:t>
   </x:si>
   <x:si>
@@ -105,6 +123,15 @@
     <x:t>Sarah Mohamed wael Farouk Mohamed Abdelhady</x:t>
   </x:si>
   <x:si>
+    <x:t>1240073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سليم اشرف عبدالرؤوف مصطفى فراج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seleim Ashraf Abdel Raouf Mostafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240427</x:t>
   </x:si>
   <x:si>
@@ -138,15 +165,6 @@
     <x:t>Aliah Mahmoud Mohamed Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن رمضان رشاد العزب محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240088</x:t>
   </x:si>
   <x:si>
@@ -235,6 +253,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ibrahim Elshenawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان محمد فراج على محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Mohamed Farag Ali Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240371</x:t>
@@ -449,7 +476,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -749,7 +776,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -757,7 +784,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.080625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="34.020625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.620625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -904,7 +931,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45925.3110492245</x:v>
+        <x:v>45927.5273012731</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1000,7 +1027,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4167915509</x:v>
+        <x:v>45927.3024249653</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1032,7 +1059,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45921.515284456</x:v>
+        <x:v>45907.4167915509</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1064,7 +1091,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.8055195602</x:v>
+        <x:v>45927.4275498843</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1096,7 +1123,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4179422454</x:v>
+        <x:v>45921.515284456</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1128,7 +1155,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45920.7824127315</x:v>
+        <x:v>45909.8055195602</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1156,9 +1183,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6671441782</x:v>
+        <x:v>45927.4551596065</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1181,16 +1210,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45918.4008486458</x:v>
+        <x:v>45908.4179422454</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1213,16 +1242,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.9609582986</x:v>
+        <x:v>45920.7824127315</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1245,16 +1274,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.6671441782</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1286,7 +1313,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45918.4008486458</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1318,7 +1345,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45920.7729113426</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1350,7 +1377,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6829636574</x:v>
+        <x:v>45927.4174105671</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1382,7 +1409,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45920.7729113426</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1414,7 +1441,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45921.8406684028</x:v>
+        <x:v>45907.6829636574</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1446,7 +1473,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45920.7870229167</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1478,7 +1505,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4198355324</x:v>
+        <x:v>45921.8406684028</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1510,7 +1537,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.9573425926</x:v>
+        <x:v>45920.7870229167</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1542,7 +1569,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.4077918171</x:v>
+        <x:v>45908.4198355324</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1574,7 +1601,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45922.596708912</x:v>
+        <x:v>45914.9573425926</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1606,7 +1633,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45918.4077918171</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1638,7 +1665,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4151913542</x:v>
+        <x:v>45927.5715227199</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1670,7 +1697,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45922.596708912</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1702,7 +1729,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1734,7 +1761,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.4151913542</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1766,7 +1793,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.6936012731</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1798,7 +1825,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.6975549769</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1830,7 +1857,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45920.7699767708</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1862,7 +1889,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45920.7855165856</x:v>
+        <x:v>45909.6936012731</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1894,7 +1921,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45920.7949499653</x:v>
+        <x:v>45909.6975549769</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1911,6 +1938,102 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45920.7699767708</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45920.7855165856</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45920.7949499653</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35039.xlsx
+++ b/downloaded_files/GENS120_Lecture-35039.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>ahmed khaled saad mahmoud</x:t>
   </x:si>
   <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250166</x:t>
   </x:si>
   <x:si>
@@ -105,6 +114,15 @@
     <x:t>Belal Hamdy Ahmad</x:t>
   </x:si>
   <x:si>
+    <x:t>1240308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روان باسم السيد احمد حسين شامل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAWAN BASSEM AL SAYED AHMED HUSSEIN SHAMEL</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240065</x:t>
   </x:si>
   <x:si>
@@ -121,15 +139,6 @@
   </x:si>
   <x:si>
     <x:t>Sarah Mohamed wael Farouk Mohamed Abdelhady</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سليم اشرف عبدالرؤوف مصطفى فراج</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seleim Ashraf Abdel Raouf Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1240427</x:t>
@@ -476,7 +485,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -776,7 +785,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -785,7 +794,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.020625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.620625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.430625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -931,7 +940,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.5273012731</x:v>
+        <x:v>45928.7044315972</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -963,7 +972,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6942217245</x:v>
+        <x:v>45927.5273012731</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -995,7 +1004,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4188600694</x:v>
+        <x:v>45907.6942217245</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1027,7 +1036,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.3024249653</x:v>
+        <x:v>45908.4188600694</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1059,7 +1068,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4167915509</x:v>
+        <x:v>45927.3024249653</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1091,7 +1100,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4275498843</x:v>
+        <x:v>45907.4167915509</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1123,7 +1132,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45921.515284456</x:v>
+        <x:v>45927.4275498843</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1155,7 +1164,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.8055195602</x:v>
+        <x:v>45928.6882905093</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1187,7 +1196,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4551596065</x:v>
+        <x:v>45921.515284456</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1219,7 +1228,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4179422454</x:v>
+        <x:v>45909.8055195602</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1251,7 +1260,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45920.7824127315</x:v>
+        <x:v>45908.4179422454</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1279,9 +1288,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6671441782</x:v>
+        <x:v>45920.7824127315</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1304,16 +1315,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45918.4008486458</x:v>
+        <x:v>45907.6671441782</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1345,7 +1354,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45918.4008486458</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1377,7 +1386,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4174105671</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1409,7 +1418,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45920.7729113426</x:v>
+        <x:v>45927.4174105671</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1441,7 +1450,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6829636574</x:v>
+        <x:v>45920.7729113426</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1473,7 +1482,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45907.6829636574</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1505,7 +1514,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45921.8406684028</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1537,7 +1546,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45920.7870229167</x:v>
+        <x:v>45921.8406684028</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1569,7 +1578,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4198355324</x:v>
+        <x:v>45920.7870229167</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1601,7 +1610,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.9573425926</x:v>
+        <x:v>45908.4198355324</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1633,7 +1642,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45918.4077918171</x:v>
+        <x:v>45914.9573425926</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1665,7 +1674,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.5715227199</x:v>
+        <x:v>45918.4077918171</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1697,7 +1706,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45922.596708912</x:v>
+        <x:v>45927.5715227199</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1729,7 +1738,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45922.596708912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1761,7 +1770,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4151913542</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1793,7 +1802,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45907.4151913542</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1825,7 +1834,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1857,7 +1866,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.6936012731</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1921,7 +1930,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.6975549769</x:v>
+        <x:v>45909.6936012731</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1953,7 +1962,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45920.7699767708</x:v>
+        <x:v>45909.6975549769</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1985,7 +1994,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45920.7855165856</x:v>
+        <x:v>45920.7699767708</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2017,7 +2026,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45920.7949499653</x:v>
+        <x:v>45920.7855165856</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2034,6 +2043,38 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45920.7949499653</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35039.xlsx
+++ b/downloaded_files/GENS120_Lecture-35039.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -264,6 +264,15 @@
     <x:t>Mohamed Ibrahim Elshenawy</x:t>
   </x:si>
   <x:si>
+    <x:t>1240361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد مصطفى محمد سعيد محمد شرويد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Mostafa Mohamed Said Mohamed Shrweed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250197</x:t>
   </x:si>
   <x:si>
@@ -271,6 +280,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Mohamed Farag Ali Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم احمد سمير محمد على الشامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryam Ahmed Samir</x:t>
   </x:si>
   <x:si>
     <x:t>1240371</x:t>
@@ -485,7 +503,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -785,7 +803,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -794,7 +812,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.020625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="47.430625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="48.750625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1706,7 +1724,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.5715227199</x:v>
+        <x:v>45929.4353017708</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1738,7 +1756,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45922.596708912</x:v>
+        <x:v>45927.5715227199</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1770,7 +1788,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45929.4058627315</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1802,7 +1820,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4151913542</x:v>
+        <x:v>45922.596708912</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1834,7 +1852,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1866,7 +1884,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.4151913542</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1898,7 +1916,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1930,7 +1948,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.6936012731</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1962,7 +1980,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.6975549769</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1994,7 +2012,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45920.7699767708</x:v>
+        <x:v>45909.6936012731</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2026,7 +2044,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45920.7855165856</x:v>
+        <x:v>45909.6975549769</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2058,7 +2076,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45920.7949499653</x:v>
+        <x:v>45920.7699767708</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2075,6 +2093,70 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45920.7855165856</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45920.7949499653</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35039.xlsx
+++ b/downloaded_files/GENS120_Lecture-35039.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Adam Ahmed Sayed Ali Khalil Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2240007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ايمن امجد حسين سلام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ayman Amged</x:t>
   </x:si>
   <x:si>
     <x:t>1230165</x:t>
@@ -503,7 +494,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -803,7 +794,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1086,7 +1077,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.3024249653</x:v>
+        <x:v>45907.4167915509</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1118,7 +1109,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4167915509</x:v>
+        <x:v>45927.4275498843</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1150,7 +1141,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4275498843</x:v>
+        <x:v>45928.6882905093</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1182,7 +1173,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45928.6882905093</x:v>
+        <x:v>45921.515284456</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1214,7 +1205,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45921.515284456</x:v>
+        <x:v>45909.8055195602</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1246,7 +1237,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.8055195602</x:v>
+        <x:v>45908.4179422454</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1278,7 +1269,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4179422454</x:v>
+        <x:v>45920.7824127315</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1306,11 +1297,9 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45920.7824127315</x:v>
+        <x:v>45907.6671441782</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1333,14 +1322,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.6671441782</x:v>
+        <x:v>45918.4008486458</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1372,7 +1363,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.4008486458</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1404,7 +1395,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45927.4174105671</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1436,7 +1427,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4174105671</x:v>
+        <x:v>45920.7729113426</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1468,7 +1459,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45920.7729113426</x:v>
+        <x:v>45907.6829636574</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1500,7 +1491,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6829636574</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1532,7 +1523,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45921.8406684028</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1564,7 +1555,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.8406684028</x:v>
+        <x:v>45920.7870229167</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1596,7 +1587,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45920.7870229167</x:v>
+        <x:v>45908.4198355324</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1628,7 +1619,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4198355324</x:v>
+        <x:v>45914.9573425926</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1660,7 +1651,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.9573425926</x:v>
+        <x:v>45918.4077918171</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1692,7 +1683,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45918.4077918171</x:v>
+        <x:v>45929.4353017708</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1724,7 +1715,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45929.4353017708</x:v>
+        <x:v>45927.5715227199</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1756,7 +1747,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.5715227199</x:v>
+        <x:v>45929.4058627315</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1788,7 +1779,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45929.4058627315</x:v>
+        <x:v>45922.596708912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1820,7 +1811,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45922.596708912</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1852,7 +1843,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45907.4151913542</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1884,7 +1875,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4151913542</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1916,7 +1907,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1948,7 +1939,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1980,7 +1971,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45909.6936012731</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2012,7 +2003,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.6936012731</x:v>
+        <x:v>45909.6975549769</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2044,7 +2035,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.6975549769</x:v>
+        <x:v>45920.7699767708</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2076,7 +2067,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45920.7699767708</x:v>
+        <x:v>45920.7855165856</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2108,7 +2099,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45920.7855165856</x:v>
+        <x:v>45920.7949499653</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2125,38 +2116,6 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45920.7949499653</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35039.xlsx
+++ b/downloaded_files/GENS120_Lecture-35039.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -253,6 +253,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ibrahim Elshenawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حسام محمد عبدالقادر عبدالحليم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Hossam</x:t>
   </x:si>
   <x:si>
     <x:t>1240361</x:t>
@@ -494,7 +503,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -794,7 +803,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1683,7 +1692,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45929.4353017708</x:v>
+        <x:v>45934.8696310185</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1715,7 +1724,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.5715227199</x:v>
+        <x:v>45929.4353017708</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1747,7 +1756,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45929.4058627315</x:v>
+        <x:v>45927.5715227199</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1779,7 +1788,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45922.596708912</x:v>
+        <x:v>45929.4058627315</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1811,7 +1820,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45922.596708912</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1843,7 +1852,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4151913542</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1875,7 +1884,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45907.4151913542</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1907,7 +1916,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1939,7 +1948,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1971,7 +1980,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.6936012731</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2003,7 +2012,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.6975549769</x:v>
+        <x:v>45909.6936012731</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2035,7 +2044,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45920.7699767708</x:v>
+        <x:v>45909.6975549769</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2067,7 +2076,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45920.7855165856</x:v>
+        <x:v>45920.7699767708</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2099,7 +2108,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45920.7949499653</x:v>
+        <x:v>45920.7855165856</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2116,6 +2125,38 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45920.7949499653</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35039.xlsx
+++ b/downloaded_files/GENS120_Lecture-35039.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -172,15 +172,6 @@
   </x:si>
   <x:si>
     <x:t>abdelrahman haitham abbas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240092</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على حسن على حسن على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Hassan Ali Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4250181</x:t>
@@ -503,7 +494,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -803,7 +794,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1404,7 +1395,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4174105671</x:v>
+        <x:v>45920.7729113426</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1436,7 +1427,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45920.7729113426</x:v>
+        <x:v>45907.6829636574</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1468,7 +1459,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6829636574</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1500,7 +1491,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45921.8406684028</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1532,7 +1523,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45921.8406684028</x:v>
+        <x:v>45920.7870229167</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1564,7 +1555,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45920.7870229167</x:v>
+        <x:v>45908.4198355324</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1596,7 +1587,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4198355324</x:v>
+        <x:v>45914.9573425926</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1628,7 +1619,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.9573425926</x:v>
+        <x:v>45918.4077918171</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1660,7 +1651,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45918.4077918171</x:v>
+        <x:v>45934.8696310185</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1692,7 +1683,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45934.8696310185</x:v>
+        <x:v>45929.4353017708</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1724,7 +1715,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45929.4353017708</x:v>
+        <x:v>45927.5715227199</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1756,7 +1747,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.5715227199</x:v>
+        <x:v>45929.4058627315</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1788,7 +1779,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45929.4058627315</x:v>
+        <x:v>45922.596708912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1820,7 +1811,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45922.596708912</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1852,7 +1843,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45907.4151913542</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1884,7 +1875,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4151913542</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1916,7 +1907,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1948,7 +1939,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1980,7 +1971,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45909.6936012731</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2012,7 +2003,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.6936012731</x:v>
+        <x:v>45909.6975549769</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2044,7 +2035,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.6975549769</x:v>
+        <x:v>45920.7699767708</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2076,7 +2067,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45920.7699767708</x:v>
+        <x:v>45920.7855165856</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2108,7 +2099,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45920.7855165856</x:v>
+        <x:v>45920.7949499653</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2125,38 +2116,6 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45920.7949499653</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
